--- a/--- BM_analysis.xlsx
+++ b/--- BM_analysis.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IMT\Documents\Python\BM_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmi\Coding\BM_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BCE941-C85E-467C-A009-E6D9C8DC6B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6076893D-5C20-4C27-B402-F5AB32F08D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="23040" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="plots" sheetId="2" r:id="rId2"/>
-    <sheet name="top 20" sheetId="3" r:id="rId3"/>
+    <sheet name="Curtailment" sheetId="4" r:id="rId3"/>
+    <sheet name="top 20" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="283">
   <si>
     <t>Start Date</t>
   </si>
@@ -827,13 +828,70 @@
   </si>
   <si>
     <t>AVG B&amp;O prior OBP</t>
+  </si>
+  <si>
+    <t>2023 Yearly Curtailment cost</t>
+  </si>
+  <si>
+    <t>Num. BM Instructions</t>
+  </si>
+  <si>
+    <t>Total Volume (MWh)</t>
+  </si>
+  <si>
+    <t>Total Cost (£ Millions</t>
+  </si>
+  <si>
+    <t>Total Curtailment Cost (£ Millions)</t>
+  </si>
+  <si>
+    <t>Total Volume</t>
+  </si>
+  <si>
+    <t>21.67 TWh</t>
+  </si>
+  <si>
+    <t>£0.27 Billion</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Total Curtailment Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022 Yearly Curtailment cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 Yearly Curtailment cost </t>
+  </si>
+  <si>
+    <t>21.52 TWh</t>
+  </si>
+  <si>
+    <t>£0.22 Billion</t>
+  </si>
+  <si>
+    <t>£2.19 Billion</t>
+  </si>
+  <si>
+    <t>12.87 TWh</t>
+  </si>
+  <si>
+    <t>£1.61 Billion</t>
+  </si>
+  <si>
+    <t>£3.02 Billion</t>
+  </si>
+  <si>
+    <t>£0.14 Billion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,6 +903,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -896,7 +960,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1813,157 +1877,121 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>plots!$A$2:$A$51</c:f>
+              <c:f>plots!$A$14:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2020-01</c:v>
+                  <c:v>2021-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-02</c:v>
+                  <c:v>2021-02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-03</c:v>
+                  <c:v>2021-03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-04</c:v>
+                  <c:v>2021-04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-05</c:v>
+                  <c:v>2021-05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020-06</c:v>
+                  <c:v>2021-06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020-07</c:v>
+                  <c:v>2021-07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020-08</c:v>
+                  <c:v>2021-08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020-09</c:v>
+                  <c:v>2021-09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020-10</c:v>
+                  <c:v>2021-10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020-11</c:v>
+                  <c:v>2021-11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020-12</c:v>
+                  <c:v>2021-12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2021-01</c:v>
+                  <c:v>2022-01</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2021-02</c:v>
+                  <c:v>2022-02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2021-03</c:v>
+                  <c:v>2022-03</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2021-04</c:v>
+                  <c:v>2022-04</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2021-05</c:v>
+                  <c:v>2022-05</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2021-06</c:v>
+                  <c:v>2022-06</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2021-07</c:v>
+                  <c:v>2022-07</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2021-08</c:v>
+                  <c:v>2022-08</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2021-09</c:v>
+                  <c:v>2022-09</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2021-10</c:v>
+                  <c:v>2022-10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2021-11</c:v>
+                  <c:v>2022-11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2021-12</c:v>
+                  <c:v>2022-12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2022-01</c:v>
+                  <c:v>2023-01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2022-02</c:v>
+                  <c:v>2023-02</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2022-03</c:v>
+                  <c:v>2023-03</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2022-04</c:v>
+                  <c:v>2023-04</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2022-05</c:v>
+                  <c:v>2023-05</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2022-06</c:v>
+                  <c:v>2023-06</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2022-07</c:v>
+                  <c:v>2023-07</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2022-08</c:v>
+                  <c:v>2023-08</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2022-09</c:v>
+                  <c:v>2023-09</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2022-10</c:v>
+                  <c:v>2023-10</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2022-11</c:v>
+                  <c:v>2023-11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2022-12</c:v>
+                  <c:v>2023-12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2023-01</c:v>
+                  <c:v>2024-01</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2023-02</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2023-03</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2023-04</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2023-05</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2023-06</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2023-07</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2023-08</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2023-09</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2023-10</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2023-11</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2023-12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2024-01</c:v>
-                </c:pt>
-                <c:pt idx="49">
                   <c:v>2024-02</c:v>
                 </c:pt>
               </c:strCache>
@@ -1971,158 +1999,122 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plots!$C$2:$C$51</c:f>
+              <c:f>plots!$C$14:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>111262131.11</c:v>
+                  <c:v>103473577.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116762646.70999999</c:v>
+                  <c:v>137023688.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90628153.060000002</c:v>
+                  <c:v>121077751.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80980528.159999996</c:v>
+                  <c:v>79654222.760000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102083548.36</c:v>
+                  <c:v>92833629.230000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90850201.909999996</c:v>
+                  <c:v>80841115.480000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66840495.140000001</c:v>
+                  <c:v>79763775.340000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62212603.75</c:v>
+                  <c:v>120448780.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72551541.469999999</c:v>
+                  <c:v>208905934.46000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104977940.56</c:v>
+                  <c:v>231485875.66</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>150581736.37</c:v>
+                  <c:v>430893099.35000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112324102.26000001</c:v>
+                  <c:v>220961821.59</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>103473577.27</c:v>
+                  <c:v>257887373.75999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>137023688.5</c:v>
+                  <c:v>250554461.19999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>121077751.17</c:v>
+                  <c:v>154858650.05000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>79654222.760000005</c:v>
+                  <c:v>101857785.23999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>92833629.230000004</c:v>
+                  <c:v>80452867.469999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80841115.480000004</c:v>
+                  <c:v>117285984.92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79763775.340000004</c:v>
+                  <c:v>21815846.739999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>120448780.5</c:v>
+                  <c:v>-20333531.879999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>208905934.46000001</c:v>
+                  <c:v>108456351.92</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>231485875.66</c:v>
+                  <c:v>256004775.21000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>430893099.35000002</c:v>
+                  <c:v>229390534.19999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>220961821.59</c:v>
+                  <c:v>211315587.49000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>257887373.75999999</c:v>
+                  <c:v>198708550.83000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>250554461.19999999</c:v>
+                  <c:v>146802491.94999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>154858650.05000001</c:v>
+                  <c:v>111599852.70999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>101857785.23999999</c:v>
+                  <c:v>118770688.28</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>80452867.469999999</c:v>
+                  <c:v>57723308.390000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>117285984.92</c:v>
+                  <c:v>52783922.020000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21815846.739999998</c:v>
+                  <c:v>151365938.25999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-20333531.879999999</c:v>
+                  <c:v>85948353.409999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>108456351.92</c:v>
+                  <c:v>150768020.36000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>256004775.21000001</c:v>
+                  <c:v>230731710.09999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>229390534.19999999</c:v>
+                  <c:v>131095019.20999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>211315587.49000001</c:v>
+                  <c:v>137959956.12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>198708550.83000001</c:v>
+                  <c:v>118156507.06999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>146802491.94999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>111599852.70999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>118770688.28</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>57723308.390000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>52783922.020000003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>151365938.25999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>85948353.409999996</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>150768020.36000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>230731710.09999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>131095019.20999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>137959956.12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>118156507.06999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
                   <c:v>100290720.41</c:v>
                 </c:pt>
               </c:numCache>
@@ -2441,157 +2433,121 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>plots!$A$2:$A$51</c:f>
+              <c:f>plots!$A$14:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>2020-01</c:v>
+                  <c:v>2021-01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2020-02</c:v>
+                  <c:v>2021-02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2020-03</c:v>
+                  <c:v>2021-03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020-04</c:v>
+                  <c:v>2021-04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020-05</c:v>
+                  <c:v>2021-05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2020-06</c:v>
+                  <c:v>2021-06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2020-07</c:v>
+                  <c:v>2021-07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2020-08</c:v>
+                  <c:v>2021-08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2020-09</c:v>
+                  <c:v>2021-09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2020-10</c:v>
+                  <c:v>2021-10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2020-11</c:v>
+                  <c:v>2021-11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2020-12</c:v>
+                  <c:v>2021-12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2021-01</c:v>
+                  <c:v>2022-01</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2021-02</c:v>
+                  <c:v>2022-02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2021-03</c:v>
+                  <c:v>2022-03</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2021-04</c:v>
+                  <c:v>2022-04</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2021-05</c:v>
+                  <c:v>2022-05</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2021-06</c:v>
+                  <c:v>2022-06</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2021-07</c:v>
+                  <c:v>2022-07</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2021-08</c:v>
+                  <c:v>2022-08</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2021-09</c:v>
+                  <c:v>2022-09</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2021-10</c:v>
+                  <c:v>2022-10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2021-11</c:v>
+                  <c:v>2022-11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2021-12</c:v>
+                  <c:v>2022-12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2022-01</c:v>
+                  <c:v>2023-01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2022-02</c:v>
+                  <c:v>2023-02</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2022-03</c:v>
+                  <c:v>2023-03</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2022-04</c:v>
+                  <c:v>2023-04</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2022-05</c:v>
+                  <c:v>2023-05</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2022-06</c:v>
+                  <c:v>2023-06</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2022-07</c:v>
+                  <c:v>2023-07</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2022-08</c:v>
+                  <c:v>2023-08</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2022-09</c:v>
+                  <c:v>2023-09</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2022-10</c:v>
+                  <c:v>2023-10</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2022-11</c:v>
+                  <c:v>2023-11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2022-12</c:v>
+                  <c:v>2023-12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2023-01</c:v>
+                  <c:v>2024-01</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2023-02</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2023-03</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2023-04</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2023-05</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2023-06</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2023-07</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2023-08</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2023-09</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2023-10</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2023-11</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2023-12</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2024-01</c:v>
-                </c:pt>
-                <c:pt idx="49">
                   <c:v>2024-02</c:v>
                 </c:pt>
               </c:strCache>
@@ -2599,158 +2555,122 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>plots!$D$2:$D$51</c:f>
+              <c:f>plots!$D$14:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>209772</c:v>
+                  <c:v>137788</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220843</c:v>
+                  <c:v>182162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>178112</c:v>
+                  <c:v>168275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>162605</c:v>
+                  <c:v>138365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180175</c:v>
+                  <c:v>145156</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>195345</c:v>
+                  <c:v>147709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>176855</c:v>
+                  <c:v>139327</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159053</c:v>
+                  <c:v>142179</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>197478</c:v>
+                  <c:v>134634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>182211</c:v>
+                  <c:v>175210</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>225702</c:v>
+                  <c:v>202806</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>179702</c:v>
+                  <c:v>155143</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>137788</c:v>
+                  <c:v>179382</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>182162</c:v>
+                  <c:v>189930</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>168275</c:v>
+                  <c:v>141074</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>138365</c:v>
+                  <c:v>123791</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>145156</c:v>
+                  <c:v>140718</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>147709</c:v>
+                  <c:v>171928</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>139327</c:v>
+                  <c:v>140900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>142179</c:v>
+                  <c:v>144076</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>134634</c:v>
+                  <c:v>152884</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>175210</c:v>
+                  <c:v>214033</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>202806</c:v>
+                  <c:v>207291</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>155143</c:v>
+                  <c:v>171806</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>179382</c:v>
+                  <c:v>187722</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>189930</c:v>
+                  <c:v>174510</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>141074</c:v>
+                  <c:v>159292</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>123791</c:v>
+                  <c:v>189176</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>140718</c:v>
+                  <c:v>143596</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>171928</c:v>
+                  <c:v>136239</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>140900</c:v>
+                  <c:v>203821</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>144076</c:v>
+                  <c:v>195409</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>152884</c:v>
+                  <c:v>219629</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>214033</c:v>
+                  <c:v>262895</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>207291</c:v>
+                  <c:v>202239</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>171806</c:v>
+                  <c:v>225286</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>187722</c:v>
+                  <c:v>273969</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>174510</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>159292</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>189176</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>143596</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>136239</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>203821</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>195409</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>219629</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>262895</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>202239</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>225286</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>273969</c:v>
-                </c:pt>
-                <c:pt idx="49">
                   <c:v>340031</c:v>
                 </c:pt>
               </c:numCache>
@@ -2992,6 +2912,2415 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Bid &amp; Offer Volumes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Offer Volume</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>plots!$A$14:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>2021-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022-09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022-11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023-01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023-02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023-03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2023-04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023-05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2023-06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2023-07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2023-08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$D$14:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>826359.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1341571.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1020830.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>790749.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1021977.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>809194.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>823302.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>986145.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>615708.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1029922.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1115540.1200000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>767028.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>872973.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1101678.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>658808.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>567731.21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>672208.79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>720410.73</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>397583.94</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>378633.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>613240.28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1219540.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1225594.49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>852237.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1024809.76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>860948.96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>762865.37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>803846.64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>555429.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>535309.66</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1013288.55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>685541.49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>970972.38</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1291070.8500000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>905083.78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1045575.05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1085773.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>925920.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB46-4413-BDA9-AAD12B7B415B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bid Volume</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>plots!$A$14:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>2021-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022-09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022-11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023-01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023-02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023-03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2023-04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023-05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2023-06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2023-07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2023-08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$E$14:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>-668747.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1109379.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-872355.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-620271.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-516938.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-527853.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-441015.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-372576.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-561238.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-912036.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1252633.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-865895.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-967225.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1135087.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-801382.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-592120.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-922812.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1103341.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1007906.27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-912242.37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-914811.29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1527330.43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1571760.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-788261.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-956710.07</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-943700.64</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-732334.07999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-998052.87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-695510.23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-456360.38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-916409.94</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-893153.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1116535.1200000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1355799.11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1067176.02</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1084721.3400000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1184387.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1141640.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB46-4413-BDA9-AAD12B7B415B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="350882255"/>
+        <c:axId val="350882735"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="350882255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350882735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="350882735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Bid Volume (GWh) Offer Volume</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350882255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bid Cost</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>plots!$A$14:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>2021-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022-09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022-11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023-01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023-02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023-03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2023-04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023-05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2023-06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2023-07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2023-08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$H$14:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>-10521090.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25546504.629999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12814006.029999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8306851.5499999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6947857.1799999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4419891.0599999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20776845.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-14678016.710000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-37282007.770000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-32127347.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1544837.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-43670652.590000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-16302143.85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6697383.1100000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-63873835.049999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-32404800.780000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-22505465.829999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-21936458.309999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-105473399.23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-166562646.03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-98923854.640000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>490939.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-29069628.93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-75205144.379999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-26216109.18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-20968801.449999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-27406232.539999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3881455.53</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-14716845.390000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-17312488.859999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22306227.100000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3132524.17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22645719.289999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43668962.450000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-947449.04</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9446000.7200000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5118779.8499999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14439103.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B063-429F-A588-C2159856C4E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Offer Cost</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>plots!$A$14:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>2021-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022-09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022-11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023-01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023-02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023-03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2023-04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023-05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2023-06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2023-07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2023-08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$G$14:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>113994667.93000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111477183.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108263745.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87961074.310000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99781486.409999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85261006.540000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100540621.18000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135126797.21000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>246187942.22999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>263613223.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>432437937.31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264632474.18000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>274189517.61000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>243857078.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>218732485.09999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134262586.02000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102958333.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>139222443.22999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>127289245.97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>146229114.15000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>207380206.56</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255513835.34999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>258460163.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>286520731.87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>224924660.00999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>167771293.40000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>139006085.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>122652143.81</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>72440153.780000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70096410.879999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>129059711.16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>89080877.579999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>128122301.06999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>187062747.65000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>132042468.25</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>128513955.40000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>113037727.22</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85851617.230000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B063-429F-A588-C2159856C4E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="327957679"/>
+        <c:axId val="327968239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="327957679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327968239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="327968239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>BM Cost (£ Millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327957679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Curtailment Cost</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Curtailment!$B$13:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>2969039.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30143786.620000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20141729.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2923069.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2466892.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5665315.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>965802.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>586202.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3464084.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15291456.210000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38908413.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19609682.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29681185.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37413608.439999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11197493.949999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10173617.210000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13235890.67</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25269818.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5226113</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5170124.9000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8032654.6699999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39142834.359999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31607273.350000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10900285.300000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16178938.550000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18095616.02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10672631.810000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28883805.329999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10287837.52</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2126709.0699999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37220513.359999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23697826.170000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42715951.450000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58478656.329999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26343410.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34A1-452B-A913-DF367FD33D4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>End Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>plots!$A$2:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2020-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2021-02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2021-03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2021-04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021-05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2021-06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2021-07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2022-08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2022-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2022-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2022-12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2023-01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2023-02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2023-03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2023-04</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2023-05</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2023-06</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2023-07</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2023-08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2023-09</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2023-10</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2023-11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2023-12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2024-01</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2024-02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>plots!$C$14:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>103473577.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137023688.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121077751.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79654222.760000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92833629.230000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80841115.480000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79763775.340000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120448780.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>208905934.46000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>231485875.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>430893099.35000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220961821.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>257887373.75999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250554461.19999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>154858650.05000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>101857785.23999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80452867.469999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>117285984.92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21815846.739999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-20333531.879999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108456351.92</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>256004775.21000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>229390534.19999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>211315587.49000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>198708550.83000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>146802491.94999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>111599852.70999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118770688.28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57723308.390000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52783922.020000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151365938.25999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>85948353.409999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>150768020.36000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>230731710.09999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>131095019.20999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>137959956.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34A1-452B-A913-DF367FD33D4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="96133632"/>
+        <c:axId val="96132192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96133632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96132192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96132192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="475000000"/>
+          <c:min val="-25000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>BM Cost (£ Millions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96133632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3152,6 +5481,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4662,6 +7111,1517 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5246,15 +9206,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>148590</xdr:colOff>
+      <xdr:colOff>255270</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5310,6 +9270,121 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9034BC-5A9E-B662-A8DE-D77BFE48BF1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5B4149-28B2-3782-0BDF-8B739EA0707B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>346710</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84ECB97-1F76-4BEE-96D8-44CBBD31D571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5603,15 +9678,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5640,7 +9719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5672,7 +9751,7 @@
         <v>209772</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5704,7 +9783,7 @@
         <v>220843</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5736,7 +9815,7 @@
         <v>178112</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5768,7 +9847,7 @@
         <v>162605</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5800,7 +9879,7 @@
         <v>180175</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5832,7 +9911,7 @@
         <v>195345</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5864,7 +9943,7 @@
         <v>176855</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5896,7 +9975,7 @@
         <v>159053</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5928,7 +10007,7 @@
         <v>197478</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5960,7 +10039,7 @@
         <v>182211</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5992,7 +10071,7 @@
         <v>225702</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6024,7 +10103,7 @@
         <v>179702</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6056,7 +10135,7 @@
         <v>137788</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6088,7 +10167,7 @@
         <v>182162</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6120,7 +10199,7 @@
         <v>168275</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6152,7 +10231,7 @@
         <v>138365</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6184,7 +10263,7 @@
         <v>145156</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6216,7 +10295,7 @@
         <v>147709</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6248,7 +10327,7 @@
         <v>139327</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6280,7 +10359,7 @@
         <v>142179</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6312,7 +10391,7 @@
         <v>134634</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6344,7 +10423,7 @@
         <v>175210</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6376,7 +10455,7 @@
         <v>202806</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6408,7 +10487,7 @@
         <v>155143</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6440,7 +10519,7 @@
         <v>179382</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6472,7 +10551,7 @@
         <v>189930</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6504,7 +10583,7 @@
         <v>141074</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6536,7 +10615,7 @@
         <v>123791</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6568,7 +10647,7 @@
         <v>140718</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6600,7 +10679,7 @@
         <v>171928</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6632,7 +10711,7 @@
         <v>140900</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6664,7 +10743,7 @@
         <v>144076</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6696,7 +10775,7 @@
         <v>152884</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6728,7 +10807,7 @@
         <v>214033</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6760,7 +10839,7 @@
         <v>207291</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6792,7 +10871,7 @@
         <v>171806</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6824,7 +10903,7 @@
         <v>187722</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6856,7 +10935,7 @@
         <v>174510</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6888,7 +10967,7 @@
         <v>159292</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6920,7 +10999,7 @@
         <v>189176</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6952,7 +11031,7 @@
         <v>143596</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6984,7 +11063,7 @@
         <v>136239</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7016,7 +11095,7 @@
         <v>203821</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7048,7 +11127,7 @@
         <v>195409</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7080,7 +11159,7 @@
         <v>219629</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7112,7 +11191,7 @@
         <v>262895</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7144,7 +11223,7 @@
         <v>202239</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7176,7 +11255,7 @@
         <v>225286</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7208,7 +11287,7 @@
         <v>273969</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7238,6 +11317,22 @@
       </c>
       <c r="J51">
         <v>340031</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <f>SUM(D38:D49)</f>
+        <v>10454741.83</v>
+      </c>
+      <c r="E54">
+        <f>SUM(E38:E49)</f>
+        <v>-11216463.200000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <f>D54+(-1)*E54</f>
+        <v>21671205.030000001</v>
       </c>
     </row>
   </sheetData>
@@ -7248,22 +11343,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0EAFA2-9EBF-4A3D-9CDF-4B0C1ABDCB27}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.68359375" customWidth="1"/>
-    <col min="2" max="2" width="15.89453125" customWidth="1"/>
-    <col min="3" max="3" width="16.1015625" customWidth="1"/>
-    <col min="4" max="4" width="14.68359375" customWidth="1"/>
-    <col min="7" max="7" width="13.62890625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
@@ -7281,7 +11380,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -7299,7 +11398,7 @@
         <v>174232.93617021278</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -7313,7 +11412,7 @@
         <v>220843</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -7327,7 +11426,7 @@
         <v>178112</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -7341,7 +11440,7 @@
         <v>162605</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -7355,7 +11454,7 @@
         <v>180175</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -7369,7 +11468,7 @@
         <v>195345</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -7383,7 +11482,7 @@
         <v>176855</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -7397,7 +11496,7 @@
         <v>159053</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -7411,7 +11510,7 @@
         <v>197478</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -7425,7 +11524,7 @@
         <v>182211</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -7439,7 +11538,7 @@
         <v>225702</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -7453,7 +11552,7 @@
         <v>179702</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -7467,7 +11566,7 @@
         <v>137788</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -7481,7 +11580,7 @@
         <v>182162</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -7495,7 +11594,7 @@
         <v>168275</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -7509,7 +11608,7 @@
         <v>138365</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>140</v>
       </c>
@@ -7523,7 +11622,7 @@
         <v>145156</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -7537,7 +11636,7 @@
         <v>147709</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -7551,7 +11650,7 @@
         <v>139327</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -7565,7 +11664,7 @@
         <v>142179</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -7579,7 +11678,7 @@
         <v>134634</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>145</v>
       </c>
@@ -7593,7 +11692,7 @@
         <v>175210</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -7607,7 +11706,7 @@
         <v>202806</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -7621,7 +11720,7 @@
         <v>155143</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -7635,7 +11734,7 @@
         <v>179382</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -7649,7 +11748,7 @@
         <v>189930</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -7663,7 +11762,7 @@
         <v>141074</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -7677,7 +11776,7 @@
         <v>123791</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -7691,7 +11790,7 @@
         <v>140718</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>153</v>
       </c>
@@ -7705,7 +11804,7 @@
         <v>171928</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -7719,7 +11818,7 @@
         <v>140900</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -7733,7 +11832,7 @@
         <v>144076</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>156</v>
       </c>
@@ -7747,7 +11846,7 @@
         <v>152884</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -7761,7 +11860,7 @@
         <v>214033</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>158</v>
       </c>
@@ -7775,7 +11874,7 @@
         <v>207291</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -7789,7 +11888,7 @@
         <v>171806</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -7803,7 +11902,7 @@
         <v>187722</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>117</v>
       </c>
@@ -7817,7 +11916,7 @@
         <v>174510</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -7831,7 +11930,7 @@
         <v>159292</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -7845,7 +11944,7 @@
         <v>189176</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -7859,7 +11958,7 @@
         <v>143596</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -7873,7 +11972,7 @@
         <v>136239</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -7887,7 +11986,7 @@
         <v>203821</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -7901,7 +12000,7 @@
         <v>195409</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -7915,7 +12014,7 @@
         <v>219629</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -7929,7 +12028,7 @@
         <v>262895</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -7943,7 +12042,7 @@
         <v>202239</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -7957,7 +12056,7 @@
         <v>225286</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -7971,7 +12070,7 @@
         <v>273969</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -7983,6 +12082,127 @@
       </c>
       <c r="D51">
         <v>340031</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" t="s">
+        <v>265</v>
+      </c>
+      <c r="H60" t="s">
+        <v>269</v>
+      </c>
+      <c r="I60" t="s">
+        <v>272</v>
+      </c>
+      <c r="J60" t="s">
+        <v>273</v>
+      </c>
+      <c r="K60" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f>SUM(data!D38:D49)+SUM(data!E38:E49)*(-1)</f>
+        <v>21671205.030000001</v>
+      </c>
+      <c r="B61">
+        <f>SUM(data!G38:G49)+SUM(data!H38:H49)*(-1)</f>
+        <v>1607287804.8400002</v>
+      </c>
+      <c r="C61">
+        <v>274701896.51999998</v>
+      </c>
+      <c r="D61">
+        <v>2299814</v>
+      </c>
+      <c r="E61">
+        <v>2023</v>
+      </c>
+      <c r="H61" t="s">
+        <v>270</v>
+      </c>
+      <c r="I61" t="s">
+        <v>280</v>
+      </c>
+      <c r="J61" t="s">
+        <v>271</v>
+      </c>
+      <c r="K61">
+        <v>2299814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f>SUM(data!D26:D37)+SUM(data!E26:E37)*(-1)</f>
+        <v>21524921.740000002</v>
+      </c>
+      <c r="B62">
+        <f>SUM(data!G26:G37)+SUM(data!H26:H37)*(-1)</f>
+        <v>3019684794.4399996</v>
+      </c>
+      <c r="C62">
+        <v>227050899.58000001</v>
+      </c>
+      <c r="D62">
+        <f>SUM(data!J26:J37)</f>
+        <v>1977813</v>
+      </c>
+      <c r="E62">
+        <v>2022</v>
+      </c>
+      <c r="H62" t="s">
+        <v>276</v>
+      </c>
+      <c r="I62" t="s">
+        <v>281</v>
+      </c>
+      <c r="J62" t="s">
+        <v>277</v>
+      </c>
+      <c r="K62">
+        <v>1977813</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f>SUM(data!D14:D25)+SUM(data!E14:E25)*(-1)</f>
+        <v>19869274.169999998</v>
+      </c>
+      <c r="B63">
+        <f>SUM(data!G14:G25)+SUM(data!H14:H25)*(-1)</f>
+        <v>2191193047.8099999</v>
+      </c>
+      <c r="C63">
+        <v>143135474.09</v>
+      </c>
+      <c r="D63">
+        <f>SUM(data!J14:J25)</f>
+        <v>1868754</v>
+      </c>
+      <c r="E63">
+        <v>2021</v>
+      </c>
+      <c r="H63" t="s">
+        <v>279</v>
+      </c>
+      <c r="I63" t="s">
+        <v>278</v>
+      </c>
+      <c r="J63" t="s">
+        <v>282</v>
+      </c>
+      <c r="K63">
+        <v>1868754</v>
       </c>
     </row>
   </sheetData>
@@ -7992,20 +12212,346 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997E0DF3-6142-41C2-8AE1-9776998DC288}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <v>2969039.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14">
+        <v>30143786.620000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15">
+        <v>20141729.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16">
+        <v>2923069.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <v>2466892.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18">
+        <v>5665315.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19">
+        <v>965802.57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20">
+        <v>586202.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21">
+        <v>3464084.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22">
+        <v>15291456.210000001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>275</v>
+      </c>
+      <c r="G22">
+        <f>SUM(B13:B24)</f>
+        <v>143135474.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23">
+        <v>38908413.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24">
+        <v>19609682.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25">
+        <v>29681185.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26">
+        <v>37413608.439999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27">
+        <v>11197493.949999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28">
+        <v>10173617.210000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29">
+        <v>13235890.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30">
+        <v>25269818.23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30">
+        <f>SUM(B25:B36)</f>
+        <v>227050899.58000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31">
+        <v>5226113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32">
+        <v>5170124.9000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33">
+        <v>8032654.6699999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34">
+        <v>39142834.359999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35">
+        <v>31607273.350000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36">
+        <v>10900285.300000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37">
+        <v>16178938.550000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38">
+        <v>18095616.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39">
+        <v>10672631.810000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40">
+        <v>28883805.329999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41">
+        <v>10287837.52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42">
+        <v>2126709.0699999998</v>
+      </c>
+      <c r="D42" t="s">
+        <v>264</v>
+      </c>
+      <c r="G42">
+        <f>SUM(B37:B47)</f>
+        <v>274701896.51999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43">
+        <v>37220513.359999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44">
+        <v>23697826.170000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45">
+        <v>42715951.450000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46">
+        <v>58478656.329999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47">
+        <v>26343410.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E602C9-FA2D-4C9B-A01E-B5D4AAAD7D91}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.26171875" customWidth="1"/>
-    <col min="3" max="3" width="10.734375" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>160</v>
       </c>
@@ -8016,7 +12562,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -8048,7 +12594,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>164</v>
       </c>
@@ -8065,7 +12611,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>165</v>
       </c>
@@ -8082,7 +12628,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>166</v>
       </c>
@@ -8099,7 +12645,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>167</v>
       </c>
@@ -8116,7 +12662,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>168</v>
       </c>
@@ -8133,7 +12679,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>169</v>
       </c>
@@ -8150,7 +12696,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>170</v>
       </c>
@@ -8167,7 +12713,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>171</v>
       </c>
@@ -8184,7 +12730,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>172</v>
       </c>
@@ -8201,7 +12747,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>173</v>
       </c>
@@ -8218,7 +12764,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>174</v>
       </c>
@@ -8235,7 +12781,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>175</v>
       </c>
@@ -8252,7 +12798,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>176</v>
       </c>
@@ -8269,7 +12815,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>177</v>
       </c>
@@ -8286,7 +12832,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>178</v>
       </c>
@@ -8303,7 +12849,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>179</v>
       </c>
@@ -8320,7 +12866,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>180</v>
       </c>
@@ -8337,7 +12883,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>181</v>
       </c>
@@ -8354,7 +12900,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>182</v>
       </c>

--- a/--- BM_analysis.xlsx
+++ b/--- BM_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmi\Coding\BM_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6076893D-5C20-4C27-B402-F5AB32F08D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD88DB3-0F28-4A2E-B2D7-98E9CC1A6246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="23040" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2983,14 +2983,291 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15847003499562554"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.82956671041119856"/>
+          <c:h val="0.53415135608048991"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bid Volume</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>plots!$A$14:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>2021-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022-09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022-11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023-01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023-02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023-03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2023-04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023-05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2023-06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2023-07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2023-08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2024-01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2024-02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$E$14:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>-668747.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1109379.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-872355.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-620271.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-516938.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-527853.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-441015.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-372576.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-561238.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-912036.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1252633.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-865895.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-967225.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1135087.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-801382.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-592120.24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-922812.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1103341.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1007906.27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-912242.37</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-914811.29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1527330.43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1571760.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-788261.62</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-956710.07</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-943700.64</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-732334.07999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-998052.87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-695510.23</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-456360.38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-916409.94</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-893153.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1116535.1200000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1355799.11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1067176.02</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1084721.3400000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1184387.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1141640.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CB46-4413-BDA9-AAD12B7B415B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Offer Volume</c:v>
           </c:tx>
@@ -3252,273 +3529,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CB46-4413-BDA9-AAD12B7B415B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Bid Volume</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>plots!$A$14:$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>2021-01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2021-02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021-03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2021-04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2021-05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2021-06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2021-07</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2021-08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2021-09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2021-10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2021-11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2021-12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2022-01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2022-02</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2022-03</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2022-04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2022-05</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2022-06</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2022-07</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2022-08</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2022-09</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2022-10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2022-11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2022-12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2023-01</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2023-02</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2023-03</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2023-04</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2023-05</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2023-06</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2023-07</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2023-08</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2023-09</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2023-10</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2023-11</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2023-12</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2024-01</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2024-02</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$E$14:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>-668747.24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1109379.93</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-872355.74</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-620271.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-516938.69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-527853.63</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-441015.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-372576.53</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-561238.19999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-912036.09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1252633.67</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-865895.78</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-967225.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1135087.25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-801382.62</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-592120.24</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-922812.07</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1103341.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1007906.27</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-912242.37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-914811.29</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1527330.43</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1571760.1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-788261.62</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-956710.07</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-943700.64</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-732334.07999999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-998052.87</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-695510.23</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-456360.38</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-916409.94</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-893153.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1116535.1200000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1355799.11</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1067176.02</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1084721.3400000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1184387.75</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1141640.97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CB46-4413-BDA9-AAD12B7B415B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3738,6 +3748,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80470341207349083"/>
+          <c:y val="1.4675196850393708E-2"/>
+          <c:w val="0.1814076990376203"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3796,9 +3847,87 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Bid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> &amp; Offer Costs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43727077865266845"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14580336832895888"/>
+          <c:y val="0.12962962962962962"/>
+          <c:w val="0.83587182852143482"/>
+          <c:h val="0.57623468941382328"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -4553,6 +4682,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.8275785214348208"/>
+          <c:y val="2.3726305045202681E-2"/>
+          <c:w val="0.14742147856517934"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -9278,15 +9448,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11345,8 +11515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0EAFA2-9EBF-4A3D-9CDF-4B0C1ABDCB27}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12215,7 +12385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997E0DF3-6142-41C2-8AE1-9776998DC288}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
